--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aug/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aug/Documents/GitHub/FundDataClawer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D817DFD-2580-5142-B9BD-DF508E929DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD9B51D-9711-AB47-827A-0EC5B5BFBCE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="460" windowWidth="28240" windowHeight="17440" xr2:uid="{1D4CCDF1-81C6-564B-B319-19510A7F9988}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>AssetAllocation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ZSPJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,6 +308,46 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundRating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiry_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任职期间回报率（%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53C25D6-713E-D54F-A5D8-7D6CCBAD3A8D}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -711,13 +747,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -787,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -918,7 +954,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -929,39 +965,39 @@
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -972,18 +1008,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -991,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -999,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1012,21 +1048,21 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1034,15 +1070,15 @@
         <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1071,7 +1107,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -1082,10 +1118,45 @@
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>68</v>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
